--- a/datasets/chill_data.xlsx
+++ b/datasets/chill_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73cfeb0658430f91/PBL 2 Project/Project/MUSIC-RECOMMENDATION-SYSTEM/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73cfeb0658430f91/_My/emotion-based-music-recommendation-system/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5F597C7B-254F-4835-8D2E-B91728D25FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{207DEF5C-C247-406A-A800-16409E3047B7}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5F597C7B-254F-4835-8D2E-B91728D25FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{387AEA64-6E71-4A54-AB15-E22430B4277E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="235">
   <si>
     <t>name</t>
   </si>
@@ -295,12 +295,6 @@
     <t>Zehnaseeb</t>
   </si>
   <si>
-    <t>Dancebility</t>
-  </si>
-  <si>
-    <t>acoustic</t>
-  </si>
-  <si>
     <t>Malang Sajna</t>
   </si>
   <si>
@@ -734,24 +728,6 @@
   </si>
   <si>
     <t>Sakhiyaan</t>
-  </si>
-  <si>
-    <t>0.25 to 0.8</t>
-  </si>
-  <si>
-    <t>0.35 to 0.8</t>
-  </si>
-  <si>
-    <t>-12.7 to -4</t>
-  </si>
-  <si>
-    <t>0 to 0.85</t>
-  </si>
-  <si>
-    <t>0.2 to 0.9</t>
-  </si>
-  <si>
-    <t>80 to 165</t>
   </si>
 </sst>
 </file>
@@ -848,2275 +824,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tempo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$2:$B$250</c:f>
-              <c:strCache>
-                <c:ptCount val="239"/>
-                <c:pt idx="0">
-                  <c:v>Kesariya (From "Brahmastra")</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mehrama</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Khaabon Ke Parinday</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Safar</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ae Zindagi Gale Laga Le - Take, 1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Saibo</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Raabta</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Is This Love</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Mileya Mileya</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ajab Si</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Aao Milo Chalo</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>O Re Piya</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Halka Halka</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Raat Bhar</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Tere Pyaar Mein</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Besharam Rang (From "Pathaan")</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Tere Siva Jag Mein</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Jehda Nasha (From "An Action Hero")</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Rangisari</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Zara Zara</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Challa</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Soch Na Sake</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Ye Tumhari Meri Baatein</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Muskurane - Romantic</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Hum Nashe Mein Toh Nahin</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Ye Ishq Hai</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Hawayein</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Darmiyaan</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Kahani (From "Laal Singh Chaddha")</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Allah De Bande (From "Gumraah")</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Baaton Ko Teri</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Jag Ghoomeya</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Mera Mann Kehne Laga</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Nazrein Milaana Nazrein Churaana</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Deva Deva (From "Brahmastra")</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Chor Bazaari</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Manike (From "Thank God")</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Shayad (From "Love Aaj Kal")</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Tu Hi Haqeeqat</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Bahara</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Itni Si Baat Hain</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Tum Mile</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Kya Mujhe Pyar Hai</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Maahi Ve</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>Gazab Ka Hai Din (From "Dil Juunglee")</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>Jeena Jeena</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>Iktara (From "Wake Up Sid")</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>Mast Magan</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>Kabira</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>Pani da Rang (Male)</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Rabba Main Toh Mar Gaya Oye</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>Chahun Main Ya Naa</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Tinka Tinka</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>Tum Se Hi</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>Meri Jaan</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Main Agar Kahoon</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>Aas Paas Khuda (Unplugged)</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>Tere Hawaale (From "Laal Singh Chaddha")</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>Tu Chahiye</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>Chashni (From "Bharat")</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>Ik Vaari Aa</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>Dil To Bachcha Hai</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>Bhage Re Mann</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>Main Rang Sharbaton Ka</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>Dildaara (Stand By Me)</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>Pal</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>Teri Jhuki Nazar</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>O Meri Jaan</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>Ek Ladki Ko Dekha Toh Aisa Laga - Title Track</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>Khuda Jaane</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Tera Hone Laga Hoon</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>Bakhuda Tumhi Ho</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>Tumhi Dekho Naa</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>Aao Naa</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>Tere Bina</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>Malang Sajna</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>Kesariya (From "Brahmastra")</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>Chaand Baaliyan</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>Baarishein</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>Agar Tum Saath Ho (From "Tamasha")</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>Kho Gaye</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>Akhiyaan</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>Aankhon Se Batana</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>Ghodey Pe Sawaar (From "Qala")</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>Aziyat 2.0 - Reprise Version</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>Jhoom - R&amp;B Mix</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>Aise Kyun - Ghazal Version</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>Tu / You</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>Naina</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>Iktara (From "Wake Up Sid")</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>Kyun Dhunde - 1 Min Music</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>Phir Se Ud Chala</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>Khaabon Ke Parinday</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>Muskurahat</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>Jab Tak</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>Tere Bina</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>Shauq</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>Woh Raat</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>Chaap Tilak</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>Riha</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>Tere Hi Hum</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>Narazi</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>Ik Tu Hi (No-Mabe)</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>Aaftaab</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>Baarish Ka Asar</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>Girta Sambhalta</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>Aashiq Tera</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>Badra Bahara</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>Aisi Raaton</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>Khoya</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>jaana</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>Khabar Nahi</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>Bewajah</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>Tu Kahaan - 1 Min Music</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>Dhaaga</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>Main Bola Hey!</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>Der Lagi Lekin</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>Pehli Baarish</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>Saawali Si Raat</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>Parda</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>Lagan Laagi Re</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>Hazir Main Rahun</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>Zara Zara - MTV Unwind</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>Favorite Peeps</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>Tu Aisa Kaise Hai?</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>Joy of Little Things</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>Le Chal</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>Muskan</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>Baarish Aa Jaave</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>Yeh Jaane Kaisa Raaz Hai</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>Aao Chalein</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>Nindiya Re - Studio Version</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>Dhalti Rahe - Stripped.</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>kho gaya</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>Sham - Sunset Edition By Nikhil Dsouza</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>Phir Se Shuru</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>Peace Of Mind</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>Khwaab - Reprise</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>Ghar</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>Ho Jaane Do</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>Koi Jaane Na</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>Dil</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>Kahaani</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>Yeah Yeah</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>Tu Jo Paas</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>Sooha Saaha</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>Tere Bina</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>Zaroori Nahi</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>Tum Ho Yahaan</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>Ye Teri Meri Kahani</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>Kasoor</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>Dil Mere</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>Khoj (Passing By)</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>Tum Ho Toh</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>Tune Kaha</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>Sham</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>Yeh Pal</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>Noor</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>Tum Badal Gaye - Gibson Sessions at Saavn Studios</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>Iktara - MTV Unplugged Version</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>Choo Lo</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>Hey Ya !</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>Mohobbat Zindabad</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>Wagairah Wagairah</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>Dil Beparvah - The Dewarists, Season 5</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>Tum Se Hi</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>O Sanam</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>Roobaroo</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>with you/for you</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>Yaaron</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>Khaabon Ke Parinday</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>Tum Jab Paas</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>Jeena Jeena</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>Agar Tum Saath Ho (From "Tamasha")</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>Ambarsariya</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>Kabhi Kabhi Aditi</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>Dil Diyan Gallan</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>Aajao</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>Pani Da Rang - Male Vocals</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>Kahin To</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>Dooba Dooba</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>Saibo</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>Madari</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>Zehnaseeb</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>Ilahi (From "Yeh Jawaani Hai Deewani")</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>Zara Sa</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>Aaya Na Tu</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>Pehla Nasha</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>O Humdum Suniyo Re</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>Kabira (Encore) [From "Yeh Jawaani Hai Deewani"]</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>Ishq Wala Love</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>Tu Na Mera</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>Dil Chahta Hai</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>Masakali</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>Teri Ay</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>Kya Karoon? (From "Wake Up Sid ")</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>Sooraj Ki Baahon Mein</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>Firefly</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>Ik Junoon (Paint It Red)</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>Maahi Ve</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>Mere Sohneya</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>Tujhe Kitna Chahne Lage</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>Ye Tumhari Meri Baatein</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>Nazar Na Lag Jaaye (From "Stree")</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>Sawarne Lage</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>kya karoon?</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>Bombay Dreams (feat. Kavita Seth)</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>Maeri</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>Woh Baarishein</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>Shayad</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>Haaye Oye (feat. Ash King)</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>Mera Mann Kehne Laga</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>Agar Tum Saath Ho-Maahi Ve (From "T-Series Mixtape")</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>Tune Jo Na Kaha</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>tere bina</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>Ek Zindagi</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>Ik Vaari Aa</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>Mera Mann-Yahin Hoon Main</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>Aye Khuda</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>Tu Meri Dost Hain</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>Aao Milo Chalo</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>Hawayein (From "Jab Harry Met Sejal")</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>Raat Raazi</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>Tum Mile - Love Reprise</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>Khudi</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>Shehron Ke Raaz</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>Saadi Galli Aaja</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>Manike Mage Hithe</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>Raataan Chill Mix - Spotify Singles (Tanishk Bagchi, Jubin Nautiyal, Hanita Bhambri)</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>Najaa (From "Sooryavanshi")</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>Jab Mila Tu</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>Bin Tere</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>Ek Main Aur Ekk Tu</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>Muskaanein Jhooti Hai</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>Doobey</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>Pasoori</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>Chaand Baaliyan</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>KTMBK</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>Sakhiyaan</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$M$2:$M$250</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="239"/>
-                <c:pt idx="0">
-                  <c:v>94.009</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>107.98699999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>169.952</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85.641000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>156.059</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90.058000000000007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>118.03700000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>119.977</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>125.003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>117.95399999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>114.77200000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>99.994</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>127.985</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>129.96899999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>118.94499999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>115.997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>121.99299999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>119.965</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>140.012</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>143.81299999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>117.989</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>151.72800000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>87.769000000000005</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>101.99</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>85.034999999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>118.045</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>125.961</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>143.84700000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>149.35400000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>73.388999999999996</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>89.915000000000006</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>82.653000000000006</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>74.977000000000004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>110.015</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>112.062</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>100.014</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>106.77200000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>136.08799999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>115.959</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>87.834000000000003</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>155.76499999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>123.01</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>118.477</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>130.995</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>170.363</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>104.96899999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>79.975999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>82.995000000000005</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>84.027000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>98.022000000000006</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>87.983999999999995</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>106.90600000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>163.99199999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>130.01499999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>104.018</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>146.86799999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>109.09399999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>134.06800000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>119.92</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>127.965</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>75.266000000000005</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>117.012</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>89.974999999999994</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>100.01300000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>133.88499999999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>124.29300000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>150.00899999999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>173.95500000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>78.936000000000007</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>119.982</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>126.967</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>81.131</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>94.037000000000006</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>144.03299999999999</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>113.943</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>94.009</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>97.281000000000006</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>94.42</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>122.925</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>76.162999999999997</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>100.021</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>177.80799999999999</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>102.003</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>104.74299999999999</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>79.971999999999994</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>152.20400000000001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>110.026</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>159.99600000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>79.975999999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91.992999999999995</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>119.965</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>169.952</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>100.001</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>121.723</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>83.992999999999995</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>139.935</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>88.965999999999994</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>84.266999999999996</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>142.61099999999999</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>116.07</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>92.741</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>77.852999999999994</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>106.887</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>119.962</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>129.89500000000001</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>114.93600000000001</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>100.032</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>176.035</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>99.995000000000005</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>101.994</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>90.950999999999993</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>82.712000000000003</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>138.02799999999999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>119.363</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>84.995000000000005</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>110.946</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>91.974000000000004</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>139.85900000000001</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>145.92599999999999</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>138.31700000000001</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>124.813</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>135.97800000000001</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>113.946</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>111.881</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>100.155</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>113.999</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>159.01599999999999</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>94.037000000000006</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>168.03100000000001</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>127.65600000000001</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>99.986000000000004</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>143.91999999999999</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>155.06200000000001</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>90.076999999999998</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>144.68700000000001</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>148.959</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>114.01600000000001</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>155.99</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>84.903000000000006</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>43.167999999999999</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>98.988</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>132.006</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>94.896000000000001</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>139.86699999999999</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>115.06</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>144.03100000000001</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>115.006</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>162.99700000000001</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>159.98099999999999</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>107.047</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>92.962000000000003</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>105.03700000000001</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>111.97199999999999</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>187.291</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>119.899</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>117.997</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>103.04900000000001</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>139.946</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>159.89500000000001</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>145.95699999999999</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>115.087</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>129.011</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>125.93600000000001</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>137.95599999999999</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>130.01499999999999</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>98.066000000000003</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>120.991</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>114.078</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>102.03100000000001</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>169.952</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>122.1</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>104.96899999999999</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>122.925</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>180.071</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>95.076999999999998</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>105.012</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>109.98099999999999</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>98.031000000000006</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>90.983999999999995</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>105.004</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>90.058000000000007</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>113.04900000000001</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>78.028999999999996</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>132.00899999999999</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>163.84200000000001</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>110.101</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>151.98599999999999</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>109.982</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>171.83799999999999</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>135.041</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>84.02</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>103.953</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>100.005</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>100.008</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>98.013999999999996</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>124.922</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>79.947000000000003</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>127.03400000000001</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>130.995</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>136.22800000000001</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>70.567999999999998</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>87.769000000000005</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>173.709</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>100.03700000000001</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>145.02000000000001</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>103.998</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>83.347999999999999</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>135.863</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>135.875</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>123.959</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>74.977000000000004</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>125.077</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>78.992000000000004</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>118.003</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>110.027</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>127.965</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>96.41</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>110.002</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>99.986999999999995</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>114.77200000000001</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>125.961</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>105.41800000000001</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>114.91500000000001</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>127.039</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>111.017</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>109.011</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>151.499</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>80.031000000000006</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>93.97</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>167.916</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>139.83099999999999</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>136.00399999999999</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>120.005</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>119.014</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>91.991</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>97.281000000000006</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>115.03400000000001</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>83.001000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D7A-4D69-A49C-5160D50BBF31}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="21683408"/>
-        <c:axId val="21682576"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="21683408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="21682576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="21682576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="21683408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799FAFC3-B0DE-468A-BCD0-F2B32A71F0BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3408,28 +1115,28 @@
   <dimension ref="A1:Q250"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="P2" sqref="P2:Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3467,7 +1174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3507,14 +1214,9 @@
       <c r="M2">
         <v>94.009</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3554,14 +1256,9 @@
       <c r="M3">
         <v>107.98699999999999</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3601,14 +1298,10 @@
       <c r="M4">
         <v>169.952</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3648,14 +1341,9 @@
       <c r="M5">
         <v>85.641000000000005</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3695,14 +1383,9 @@
       <c r="M6">
         <v>156.059</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3742,14 +1425,9 @@
       <c r="M7">
         <v>90.058000000000007</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3790,7 +1468,7 @@
         <v>118.03700000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3831,7 +1509,7 @@
         <v>119.977</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3872,7 +1550,7 @@
         <v>125.003</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3913,7 +1591,7 @@
         <v>117.95399999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3954,7 +1632,7 @@
         <v>114.77200000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3995,7 +1673,7 @@
         <v>99.994</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4036,7 +1714,7 @@
         <v>127.985</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4077,7 +1755,7 @@
         <v>129.96899999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4118,7 +1796,7 @@
         <v>118.94499999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4159,7 +1837,7 @@
         <v>115.997</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4200,7 +1878,7 @@
         <v>121.99299999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4241,7 +1919,7 @@
         <v>119.965</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4282,7 +1960,7 @@
         <v>140.012</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4323,7 +2001,7 @@
         <v>143.81299999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4364,7 +2042,7 @@
         <v>117.989</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4405,7 +2083,7 @@
         <v>151.72800000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4446,7 +2124,7 @@
         <v>87.769000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4487,7 +2165,7 @@
         <v>101.99</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4528,7 +2206,7 @@
         <v>85.034999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4569,7 +2247,7 @@
         <v>118.045</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4610,7 +2288,7 @@
         <v>125.961</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4651,7 +2329,7 @@
         <v>143.84700000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4692,7 +2370,7 @@
         <v>149.35400000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4733,7 +2411,7 @@
         <v>73.388999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4774,7 +2452,7 @@
         <v>89.915000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4815,7 +2493,7 @@
         <v>82.653000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4856,7 +2534,7 @@
         <v>74.977000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4897,7 +2575,7 @@
         <v>110.015</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4938,7 +2616,7 @@
         <v>112.062</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4979,7 +2657,7 @@
         <v>100.014</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5020,7 +2698,7 @@
         <v>106.77200000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5061,7 +2739,7 @@
         <v>136.08799999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5102,7 +2780,7 @@
         <v>115.959</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5143,7 +2821,7 @@
         <v>87.834000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5184,7 +2862,7 @@
         <v>155.76499999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5225,7 +2903,7 @@
         <v>123.01</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5266,7 +2944,7 @@
         <v>118.477</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5307,7 +2985,7 @@
         <v>130.995</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5348,7 +3026,7 @@
         <v>170.363</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5389,7 +3067,7 @@
         <v>104.96899999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5430,7 +3108,7 @@
         <v>79.975999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5471,7 +3149,7 @@
         <v>82.995000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5512,7 +3190,7 @@
         <v>84.027000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5553,7 +3231,7 @@
         <v>98.022000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5594,7 +3272,7 @@
         <v>87.983999999999995</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5635,7 +3313,7 @@
         <v>106.90600000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5676,7 +3354,7 @@
         <v>163.99199999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5717,7 +3395,7 @@
         <v>130.01499999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5758,7 +3436,7 @@
         <v>104.018</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5799,7 +3477,7 @@
         <v>146.86799999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5840,7 +3518,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5881,7 +3559,7 @@
         <v>109.09399999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5922,7 +3600,7 @@
         <v>134.06800000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5963,7 +3641,7 @@
         <v>119.92</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6004,7 +3682,7 @@
         <v>127.965</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6045,7 +3723,7 @@
         <v>75.266000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6086,7 +3764,7 @@
         <v>117.012</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6127,7 +3805,7 @@
         <v>89.974999999999994</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6168,7 +3846,7 @@
         <v>100.01300000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -6209,7 +3887,7 @@
         <v>133.88499999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -6250,7 +3928,7 @@
         <v>124.29300000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -6291,7 +3969,7 @@
         <v>150.00899999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -6332,7 +4010,7 @@
         <v>173.95500000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -6373,7 +4051,7 @@
         <v>78.936000000000007</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -6414,7 +4092,7 @@
         <v>119.982</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6455,7 +4133,7 @@
         <v>126.967</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6496,7 +4174,7 @@
         <v>81.131</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6537,7 +4215,7 @@
         <v>94.037000000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6578,12 +4256,12 @@
         <v>144.03299999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C77">
         <v>0.73899999999999999</v>
@@ -6619,7 +4297,7 @@
         <v>113.943</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6660,12 +4338,12 @@
         <v>94.009</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C79">
         <v>0.72899999999999998</v>
@@ -6701,12 +4379,12 @@
         <v>97.281000000000006</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C80">
         <v>0.47499999999999998</v>
@@ -6742,12 +4420,12 @@
         <v>94.42</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C81">
         <v>0.56200000000000006</v>
@@ -6783,12 +4461,12 @@
         <v>122.925</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C82">
         <v>0.47799999999999998</v>
@@ -6824,12 +4502,12 @@
         <v>76.162999999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C83">
         <v>0.72399999999999998</v>
@@ -6865,12 +4543,12 @@
         <v>100.021</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C84">
         <v>0.54400000000000004</v>
@@ -6906,12 +4584,12 @@
         <v>177.80799999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C85">
         <v>0.77700000000000002</v>
@@ -6947,12 +4625,12 @@
         <v>102.003</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C86">
         <v>0.44500000000000001</v>
@@ -6988,12 +4666,12 @@
         <v>104.74299999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C87">
         <v>0.66200000000000003</v>
@@ -7029,12 +4707,12 @@
         <v>79.971999999999994</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C88">
         <v>0.39500000000000002</v>
@@ -7070,12 +4748,12 @@
         <v>152.20400000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C89">
         <v>0.71699999999999997</v>
@@ -7111,12 +4789,12 @@
         <v>110.026</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C90">
         <v>0.495</v>
@@ -7152,7 +4830,7 @@
         <v>159.99600000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7193,12 +4871,12 @@
         <v>79.975999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C92">
         <v>0.71099999999999997</v>
@@ -7234,12 +4912,12 @@
         <v>91.992999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C93">
         <v>0.64700000000000002</v>
@@ -7275,7 +4953,7 @@
         <v>119.965</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7316,12 +4994,12 @@
         <v>169.952</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C95">
         <v>0.68100000000000005</v>
@@ -7357,12 +5035,12 @@
         <v>100.001</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C96">
         <v>0.29899999999999999</v>
@@ -7398,7 +5076,7 @@
         <v>121.723</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7439,12 +5117,12 @@
         <v>83.992999999999995</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C98">
         <v>0.41099999999999998</v>
@@ -7480,12 +5158,12 @@
         <v>139.935</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C99">
         <v>0.51600000000000001</v>
@@ -7521,12 +5199,12 @@
         <v>88.965999999999994</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C100">
         <v>0.54400000000000004</v>
@@ -7562,12 +5240,12 @@
         <v>84.266999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C101">
         <v>0.38900000000000001</v>
@@ -7603,12 +5281,12 @@
         <v>142.61099999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C102">
         <v>0.73799999999999999</v>
@@ -7644,12 +5322,12 @@
         <v>116.07</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C103">
         <v>0.436</v>
@@ -7685,12 +5363,12 @@
         <v>92.741</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C104">
         <v>0.48699999999999999</v>
@@ -7726,12 +5404,12 @@
         <v>77.852999999999994</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C105">
         <v>0.46400000000000002</v>
@@ -7767,12 +5445,12 @@
         <v>106.887</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C106">
         <v>0.59</v>
@@ -7808,7 +5486,7 @@
         <v>119.962</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7849,12 +5527,12 @@
         <v>129.89500000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C108">
         <v>0.46</v>
@@ -7890,12 +5568,12 @@
         <v>114.93600000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C109">
         <v>0.77</v>
@@ -7931,12 +5609,12 @@
         <v>100.032</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C110">
         <v>0.51700000000000002</v>
@@ -7972,12 +5650,12 @@
         <v>176.035</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C111">
         <v>0.60899999999999999</v>
@@ -8013,12 +5691,12 @@
         <v>99.995000000000005</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C112">
         <v>0.71499999999999997</v>
@@ -8054,12 +5732,12 @@
         <v>101.994</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C113">
         <v>0.622</v>
@@ -8095,12 +5773,12 @@
         <v>90.950999999999993</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C114">
         <v>0.35799999999999998</v>
@@ -8136,12 +5814,12 @@
         <v>82.712000000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C115">
         <v>0.58199999999999996</v>
@@ -8177,12 +5855,12 @@
         <v>138.02799999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C116">
         <v>0.42799999999999999</v>
@@ -8218,12 +5896,12 @@
         <v>119.363</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C117">
         <v>0.64600000000000002</v>
@@ -8259,12 +5937,12 @@
         <v>84.995000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C118">
         <v>0.63700000000000001</v>
@@ -8300,12 +5978,12 @@
         <v>110.946</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C119">
         <v>0.58399999999999996</v>
@@ -8341,12 +6019,12 @@
         <v>91.974000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C120">
         <v>0.48499999999999999</v>
@@ -8382,12 +6060,12 @@
         <v>139.85900000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C121">
         <v>0.60399999999999998</v>
@@ -8423,12 +6101,12 @@
         <v>145.92599999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C122">
         <v>0.39800000000000002</v>
@@ -8464,12 +6142,12 @@
         <v>138.31700000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C123">
         <v>0.50800000000000001</v>
@@ -8505,7 +6183,7 @@
         <v>124.813</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -8546,12 +6224,12 @@
         <v>135.97800000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C125">
         <v>0.61099999999999999</v>
@@ -8587,12 +6265,12 @@
         <v>113.946</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C126">
         <v>0.73099999999999998</v>
@@ -8628,12 +6306,12 @@
         <v>111.881</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C127">
         <v>0.50900000000000001</v>
@@ -8669,12 +6347,12 @@
         <v>100.155</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C128">
         <v>0.68300000000000005</v>
@@ -8710,12 +6388,12 @@
         <v>113.999</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C129">
         <v>0.56200000000000006</v>
@@ -8751,12 +6429,12 @@
         <v>159.01599999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C130">
         <v>0.71899999999999997</v>
@@ -8792,12 +6470,12 @@
         <v>94.037000000000006</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C131">
         <v>0.40799999999999997</v>
@@ -8833,12 +6511,12 @@
         <v>168.03100000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C132">
         <v>0.70499999999999996</v>
@@ -8874,12 +6552,12 @@
         <v>127.65600000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C133">
         <v>0.65500000000000003</v>
@@ -8915,12 +6593,12 @@
         <v>99.986000000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C134">
         <v>0.58099999999999996</v>
@@ -8956,12 +6634,12 @@
         <v>143.91999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C135">
         <v>0.72899999999999998</v>
@@ -8997,12 +6675,12 @@
         <v>155.06200000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C136">
         <v>0.434</v>
@@ -9038,12 +6716,12 @@
         <v>90.076999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C137">
         <v>0.51500000000000001</v>
@@ -9079,12 +6757,12 @@
         <v>144.68700000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C138">
         <v>0.73299999999999998</v>
@@ -9120,12 +6798,12 @@
         <v>148.959</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C139">
         <v>0.61099999999999999</v>
@@ -9161,12 +6839,12 @@
         <v>114.01600000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C140">
         <v>0.48299999999999998</v>
@@ -9202,12 +6880,12 @@
         <v>155.99</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C141">
         <v>0.54700000000000004</v>
@@ -9243,12 +6921,12 @@
         <v>84.903000000000006</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C142">
         <v>0.27</v>
@@ -9284,12 +6962,12 @@
         <v>43.167999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C143">
         <v>0.71099999999999997</v>
@@ -9325,12 +7003,12 @@
         <v>98.988</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C144">
         <v>0.70299999999999996</v>
@@ -9366,12 +7044,12 @@
         <v>132.006</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C145">
         <v>0.64</v>
@@ -9407,12 +7085,12 @@
         <v>94.896000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C146">
         <v>0.64800000000000002</v>
@@ -9448,12 +7126,12 @@
         <v>139.86699999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C147">
         <v>0.55100000000000005</v>
@@ -9489,7 +7167,7 @@
         <v>115.06</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -9530,12 +7208,12 @@
         <v>144.03100000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C149">
         <v>0.73599999999999999</v>
@@ -9571,12 +7249,12 @@
         <v>115.006</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C150">
         <v>0.504</v>
@@ -9612,12 +7290,12 @@
         <v>162.99700000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C151">
         <v>0.53800000000000003</v>
@@ -9653,12 +7331,12 @@
         <v>159.98099999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C152">
         <v>0.55800000000000005</v>
@@ -9694,12 +7372,12 @@
         <v>107.047</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C153">
         <v>0.65500000000000003</v>
@@ -9735,12 +7413,12 @@
         <v>92.962000000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C154">
         <v>0.57999999999999996</v>
@@ -9776,12 +7454,12 @@
         <v>105.03700000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C155">
         <v>0.46899999999999997</v>
@@ -9817,12 +7495,12 @@
         <v>111.97199999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C156">
         <v>0.36199999999999999</v>
@@ -9858,12 +7536,12 @@
         <v>187.291</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C157">
         <v>0.72199999999999998</v>
@@ -9899,12 +7577,12 @@
         <v>119.899</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C158">
         <v>0.752</v>
@@ -9940,12 +7618,12 @@
         <v>117.997</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C159">
         <v>0.79200000000000004</v>
@@ -9981,7 +7659,7 @@
         <v>103.04900000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -10019,12 +7697,12 @@
         <v>125.965</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C161">
         <v>0.68600000000000005</v>
@@ -10060,12 +7738,12 @@
         <v>139.946</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C162">
         <v>0.54100000000000004</v>
@@ -10101,12 +7779,12 @@
         <v>159.89500000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C163">
         <v>0.51200000000000001</v>
@@ -10142,12 +7820,12 @@
         <v>145.95699999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C164">
         <v>0.79900000000000004</v>
@@ -10183,12 +7861,12 @@
         <v>115.087</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C165">
         <v>0.78100000000000003</v>
@@ -10224,12 +7902,12 @@
         <v>129.011</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C166">
         <v>0.74099999999999999</v>
@@ -10265,12 +7943,12 @@
         <v>125.93600000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C167">
         <v>0.76200000000000001</v>
@@ -10306,7 +7984,7 @@
         <v>137.95599999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -10347,12 +8025,12 @@
         <v>130.01499999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C169">
         <v>0.76</v>
@@ -10388,12 +8066,12 @@
         <v>98.066000000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C170">
         <v>0.67500000000000004</v>
@@ -10429,7 +8107,7 @@
         <v>120.991</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -10467,12 +8145,12 @@
         <v>187.27</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C172">
         <v>0.73099999999999998</v>
@@ -10508,12 +8186,12 @@
         <v>114.078</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C173">
         <v>0.69099999999999995</v>
@@ -10549,7 +8227,7 @@
         <v>102.03100000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -10590,12 +8268,12 @@
         <v>169.952</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C175">
         <v>0.751</v>
@@ -10631,7 +8309,7 @@
         <v>122.1</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -10672,12 +8350,12 @@
         <v>104.96899999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C177">
         <v>0.56200000000000006</v>
@@ -10713,12 +8391,12 @@
         <v>122.925</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C178">
         <v>0.64900000000000002</v>
@@ -10754,12 +8432,12 @@
         <v>180.071</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C179">
         <v>0.79100000000000004</v>
@@ -10795,12 +8473,12 @@
         <v>95.076999999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C180">
         <v>0.71599999999999997</v>
@@ -10836,12 +8514,12 @@
         <v>105.012</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C181">
         <v>0.72399999999999998</v>
@@ -10877,12 +8555,12 @@
         <v>109.98099999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C182">
         <v>0.441</v>
@@ -10918,12 +8596,12 @@
         <v>98.031000000000006</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C183">
         <v>0.61</v>
@@ -10959,12 +8637,12 @@
         <v>90.983999999999995</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C184">
         <v>0.71599999999999997</v>
@@ -11000,7 +8678,7 @@
         <v>105.004</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -11041,12 +8719,12 @@
         <v>90.058000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C186">
         <v>0.57899999999999996</v>
@@ -11082,7 +8760,7 @@
         <v>113.04900000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -11123,12 +8801,12 @@
         <v>78.028999999999996</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C188">
         <v>0.59399999999999997</v>
@@ -11164,12 +8842,12 @@
         <v>132.00899999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C189">
         <v>0.46800000000000003</v>
@@ -11205,12 +8883,12 @@
         <v>163.84200000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C190">
         <v>0.66500000000000004</v>
@@ -11246,12 +8924,12 @@
         <v>110.101</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C191">
         <v>0.45800000000000002</v>
@@ -11287,12 +8965,12 @@
         <v>151.98599999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C192">
         <v>0.81399999999999995</v>
@@ -11328,12 +9006,12 @@
         <v>109.982</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C193">
         <v>0.61299999999999999</v>
@@ -11369,12 +9047,12 @@
         <v>171.83799999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C194">
         <v>0.71099999999999997</v>
@@ -11410,12 +9088,12 @@
         <v>135.041</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C195">
         <v>0.46</v>
@@ -11451,12 +9129,12 @@
         <v>84.02</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C196">
         <v>0.81299999999999994</v>
@@ -11492,12 +9170,12 @@
         <v>103.953</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C197">
         <v>0.67800000000000005</v>
@@ -11533,7 +9211,7 @@
         <v>100.005</v>
       </c>
     </row>
-    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -11571,12 +9249,12 @@
         <v>120.05800000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C199">
         <v>0.66600000000000004</v>
@@ -11612,12 +9290,12 @@
         <v>100.008</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C200">
         <v>0.59399999999999997</v>
@@ -11653,12 +9331,12 @@
         <v>98.013999999999996</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C201">
         <v>0.85499999999999998</v>
@@ -11694,12 +9372,12 @@
         <v>124.922</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C202">
         <v>0.53300000000000003</v>
@@ -11735,12 +9413,12 @@
         <v>79.947000000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C203">
         <v>0.79</v>
@@ -11776,7 +9454,7 @@
         <v>127.03400000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -11814,7 +9492,7 @@
         <v>116.033</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -11855,12 +9533,12 @@
         <v>130.995</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C206">
         <v>0.376</v>
@@ -11896,12 +9574,12 @@
         <v>136.22800000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C207">
         <v>0.39500000000000002</v>
@@ -11937,7 +9615,7 @@
         <v>70.567999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -11975,7 +9653,7 @@
         <v>169.92</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -12016,12 +9694,12 @@
         <v>87.769000000000005</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C210">
         <v>0.52700000000000002</v>
@@ -12057,12 +9735,12 @@
         <v>173.709</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C211">
         <v>0.78400000000000003</v>
@@ -12098,12 +9776,12 @@
         <v>100.03700000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C212">
         <v>0.72299999999999998</v>
@@ -12139,12 +9817,12 @@
         <v>145.02000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C213">
         <v>0.629</v>
@@ -12180,12 +9858,12 @@
         <v>103.998</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C214">
         <v>0.48699999999999999</v>
@@ -12221,12 +9899,12 @@
         <v>83.347999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C215">
         <v>0.28699999999999998</v>
@@ -12262,12 +9940,12 @@
         <v>135.863</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C216">
         <v>0.48299999999999998</v>
@@ -12303,12 +9981,12 @@
         <v>135.875</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C217">
         <v>0.63300000000000001</v>
@@ -12344,7 +10022,7 @@
         <v>123.959</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -12385,7 +10063,7 @@
         <v>74.977000000000004</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -12423,12 +10101,12 @@
         <v>163.74700000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C220">
         <v>0.623</v>
@@ -12464,7 +10142,7 @@
         <v>125.077</v>
       </c>
     </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -12502,12 +10180,12 @@
         <v>82.228999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C222">
         <v>0.314</v>
@@ -12543,12 +10221,12 @@
         <v>78.992000000000004</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C223">
         <v>0.88900000000000001</v>
@@ -12584,7 +10262,7 @@
         <v>118.003</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -12622,12 +10300,12 @@
         <v>119.935</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C225">
         <v>0.68799999999999994</v>
@@ -12663,7 +10341,7 @@
         <v>110.027</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -12704,12 +10382,12 @@
         <v>127.965</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C227">
         <v>0.59399999999999997</v>
@@ -12745,12 +10423,12 @@
         <v>96.41</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C228">
         <v>0.65600000000000003</v>
@@ -12786,12 +10464,12 @@
         <v>110.002</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C229">
         <v>0.68300000000000005</v>
@@ -12827,7 +10505,7 @@
         <v>99.986999999999995</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -12868,12 +10546,12 @@
         <v>114.77200000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C231">
         <v>0.60599999999999998</v>
@@ -12909,12 +10587,12 @@
         <v>125.961</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C232">
         <v>0.48099999999999998</v>
@@ -12950,12 +10628,12 @@
         <v>105.41800000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C233">
         <v>0.58899999999999997</v>
@@ -12991,7 +10669,7 @@
         <v>114.91500000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -13029,12 +10707,12 @@
         <v>79.876999999999995</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C235">
         <v>0.626</v>
@@ -13070,12 +10748,12 @@
         <v>127.039</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C236">
         <v>0.77700000000000002</v>
@@ -13111,12 +10789,12 @@
         <v>111.017</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C237">
         <v>0.73899999999999999</v>
@@ -13152,12 +10830,12 @@
         <v>109.011</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C238">
         <v>0.83599999999999997</v>
@@ -13193,12 +10871,12 @@
         <v>151.499</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C239">
         <v>0.60199999999999998</v>
@@ -13234,12 +10912,12 @@
         <v>80.031000000000006</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C240">
         <v>0.78600000000000003</v>
@@ -13275,12 +10953,12 @@
         <v>93.97</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C241">
         <v>0.626</v>
@@ -13316,12 +10994,12 @@
         <v>167.916</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C242">
         <v>0.58499999999999996</v>
@@ -13357,12 +11035,12 @@
         <v>139.83099999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C243">
         <v>0.77</v>
@@ -13398,12 +11076,12 @@
         <v>136.00399999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C244">
         <v>0.748</v>
@@ -13439,7 +11117,7 @@
         <v>120.005</v>
       </c>
     </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -13477,12 +11155,12 @@
         <v>120.042</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C246">
         <v>0.751</v>
@@ -13518,12 +11196,12 @@
         <v>119.014</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C247">
         <v>0.71399999999999997</v>
@@ -13559,12 +11237,12 @@
         <v>91.991</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C248">
         <v>0.72899999999999998</v>
@@ -13600,12 +11278,12 @@
         <v>97.281000000000006</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C249">
         <v>0.89800000000000002</v>
@@ -13641,12 +11319,12 @@
         <v>115.03400000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C250">
         <v>0.70599999999999996</v>
@@ -13691,6 +11369,5 @@
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>